--- a/disertasi.xlsx
+++ b/disertasi.xlsx
@@ -5,23 +5,22 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\tesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076A5C9B-C75E-4AD2-AD00-5EB49DA02ED0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8451DCC3-1554-4BEB-826F-468771C3EBC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Table 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <r>
       <rPr>
@@ -675,6 +674,28 @@
         <family val="1"/>
       </rPr>
       <t>s</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Lintang</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bujur</t>
     </r>
   </si>
 </sst>
@@ -774,12 +795,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
@@ -829,61 +847,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>21342</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1286510" cy="368935"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Shape 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1286510" cy="368935"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path w="1286510" h="368935">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="1286256" y="368807"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:ln w="9144">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1207,10 +1170,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20:Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1222,2657 +1185,1915 @@
     <col min="9" max="9" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="P1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>92.75</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>92.33</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>97.86</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>4.01</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>70.06</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>47.49</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <v>14.8</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <v>91.35</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="5">
         <v>18.72</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="5">
         <v>15.24</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="9">
         <v>34</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="9">
         <v>169</v>
       </c>
-      <c r="N2" s="10">
+      <c r="N2" s="9">
         <v>62</v>
       </c>
-      <c r="O2" s="11">
+      <c r="O2" s="10">
         <v>29652</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="P2" s="6">
+        <v>-7.73</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>109.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>92.38</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>89.66</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>100</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>5.45</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>58.1</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>95.42</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <v>32.9</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <v>94.62</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <v>17.66</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="5">
         <v>18.440000000000001</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="9">
         <v>35</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="9">
         <v>207</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N3" s="9">
         <v>54</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="10">
         <v>27744</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="P3" s="6">
+        <v>-7.42</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>109.23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>96.62</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>94.02</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>97.2</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>4.32</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>66.88</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>117.97</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <v>14.6</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>93.35</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <v>21.24</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <v>20.53</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="9">
         <v>26</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="9">
         <v>93</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="9">
         <v>24</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="10">
         <v>15202</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="P4" s="6">
+        <v>-7.39</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>109.36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>86.47</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>84.43</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>97.2</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>6.37</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>39.270000000000003</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>74.84</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <v>12.8</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>88.72</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>30.84</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="5">
         <v>18.71</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="9">
         <v>19</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="9">
         <v>167</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5" s="9">
         <v>22</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="10">
         <v>16314</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="P5" s="6">
+        <v>-7.4</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>109.69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>97.77</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>97.77</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>97.15</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>2.91</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>67.62</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>135.80000000000001</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <v>17.600000000000001</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>90.05</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <v>11.93</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <v>21.32</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="9">
         <v>15</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="9">
         <v>123</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6" s="9">
         <v>26</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="10">
         <v>20375</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="P6" s="6">
+        <v>-7.69</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>109.65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>87.91</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>89.43</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>97.65</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>5.26</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>72.900000000000006</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>110.14</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>23.5</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <v>93.43</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <v>14.96</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <v>15.44</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="9">
         <v>7</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="9">
         <v>63</v>
       </c>
-      <c r="N7" s="10">
+      <c r="N7" s="9">
         <v>17</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="10">
         <v>9615</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="P7" s="6">
+        <v>-7.71</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>110.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>86.42</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>89.6</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>96.29</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>5.42</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>51.29</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>91.38</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <v>11.7</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <v>92.14</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <v>34.19</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <v>22.08</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="9">
         <v>11</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="9">
         <v>123</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8" s="9">
         <v>15</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8" s="10">
         <v>13056</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="P8" s="6">
+        <v>-7.36</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>109.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>89.26</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>90.64</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>97.65</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>4.8</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>65.55</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>117.62</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <v>16.5</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <v>93.06</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>17.940000000000001</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <v>13.96</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="9">
         <v>11</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="9">
         <v>83</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="9">
         <v>29</v>
       </c>
-      <c r="O9" s="11">
+      <c r="O9" s="10">
         <v>18993</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="P9" s="6">
+        <v>-7.56</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>110.23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>92.46</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>90.29</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>93.9</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>1.54</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>36.869999999999997</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>100.54</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="7">
         <v>16.2</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <v>88.3</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <v>19.25</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <v>13.27</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="9">
         <v>14</v>
       </c>
-      <c r="M10" s="10">
+      <c r="M10" s="9">
         <v>84</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N10" s="9">
         <v>17</v>
       </c>
-      <c r="O10" s="11">
+      <c r="O10" s="10">
         <v>14729</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="P10" s="6">
+        <v>-7.53</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>110.59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>91.26</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>92.14</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>96.8</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>4.16</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>70.53</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>179.11</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <v>30.9</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="5">
         <v>88.15</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <v>5.48</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="5">
         <v>15.6</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="9">
         <v>22</v>
       </c>
-      <c r="M11" s="10">
+      <c r="M11" s="9">
         <v>102</v>
       </c>
-      <c r="N11" s="10">
+      <c r="N11" s="9">
         <v>26</v>
       </c>
-      <c r="O11" s="11">
+      <c r="O11" s="10">
         <v>17734</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="P11" s="6">
+        <v>-7.7</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>110.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>90.18</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>90.58</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>96.71</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>3.41</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>80.44</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>115.13</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="7">
         <v>51</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <v>89.59</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <v>10.79</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="5">
         <v>9.8699999999999992</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="9">
         <v>13</v>
       </c>
-      <c r="M12" s="10">
+      <c r="M12" s="9">
         <v>84</v>
       </c>
-      <c r="N12" s="10">
+      <c r="N12" s="9">
         <v>21</v>
       </c>
-      <c r="O12" s="11">
+      <c r="O12" s="10">
         <v>13152</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="P12" s="6">
+        <v>-7.68</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>110.84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>92.11</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>96.49</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>96.77</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>4.79</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>68.5</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>113.54</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="7">
         <v>16.899999999999999</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <v>85.38</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <v>21.54</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="5">
         <v>14.02</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="9">
         <v>13</v>
       </c>
-      <c r="M13" s="10">
+      <c r="M13" s="9">
         <v>44</v>
       </c>
-      <c r="N13" s="10">
+      <c r="N13" s="9">
         <v>14</v>
       </c>
-      <c r="O13" s="11">
+      <c r="O13" s="10">
         <v>12328</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="P13" s="6">
+        <v>-7.81</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>110.92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>90.11</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>89.03</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>98.23</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>3.45</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>73.09</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <v>111.88</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="7">
         <v>35</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="5">
         <v>89.72</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="5">
         <v>12.5</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="5">
         <v>13.58</v>
       </c>
-      <c r="L14" s="10">
+      <c r="L14" s="9">
         <v>9</v>
       </c>
-      <c r="M14" s="10">
+      <c r="M14" s="9">
         <v>75</v>
       </c>
-      <c r="N14" s="10">
+      <c r="N14" s="9">
         <v>32</v>
       </c>
-      <c r="O14" s="11">
+      <c r="O14" s="10">
         <v>13249</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="P14" s="6">
+        <v>-7.6</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>110.95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>92.97</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>94.86</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>96.29</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>3.76</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <v>77.900000000000006</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <v>87.39</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="7">
         <v>27.5</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="5">
         <v>83.44</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="5">
         <v>20.22</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="5">
         <v>15.93</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="9">
         <v>16</v>
       </c>
-      <c r="M15" s="10">
+      <c r="M15" s="9">
         <v>76</v>
       </c>
-      <c r="N15" s="10">
+      <c r="N15" s="9">
         <v>20</v>
       </c>
-      <c r="O15" s="11">
+      <c r="O15" s="10">
         <v>15125</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="P15" s="6">
+        <v>-7.43</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>88.46</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>82.46</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>98.56</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>4.0199999999999996</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>65.819999999999993</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <v>57.55</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="7">
         <v>12.8</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="5">
         <v>91.81</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="5">
         <v>34.950000000000003</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="5">
         <v>14.87</v>
       </c>
-      <c r="L16" s="10">
+      <c r="L16" s="9">
         <v>22</v>
       </c>
-      <c r="M16" s="10">
+      <c r="M16" s="9">
         <v>189</v>
       </c>
-      <c r="N16" s="10">
+      <c r="N16" s="9">
         <v>52</v>
       </c>
-      <c r="O16" s="11">
+      <c r="O16" s="10">
         <v>21570</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="P16" s="6">
+        <v>-7.1</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>110.91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>92.6</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>92.6</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>97.13</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>5.4</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <v>66.44</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <v>46.89</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="7">
         <v>13.3</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="5">
         <v>84.71</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="5">
         <v>31.36</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="5">
         <v>14.64</v>
       </c>
-      <c r="L17" s="10">
+      <c r="L17" s="9">
         <v>14</v>
       </c>
-      <c r="M17" s="10">
+      <c r="M17" s="9">
         <v>107</v>
       </c>
-      <c r="N17" s="10">
+      <c r="N17" s="9">
         <v>22</v>
       </c>
-      <c r="O17" s="11">
+      <c r="O17" s="10">
         <v>11752</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="P17" s="6">
+        <v>-6.97</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>111.41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>80.81</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>83.87</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>98.71</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>5.44</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>50.75</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <v>78.34</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="7">
         <v>15.3</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="5">
         <v>91.52</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="5">
         <v>30.58</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="5">
         <v>20.97</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="9">
         <v>17</v>
       </c>
-      <c r="M18" s="10">
+      <c r="M18" s="9">
         <v>82</v>
       </c>
-      <c r="N18" s="10">
+      <c r="N18" s="9">
         <v>34</v>
       </c>
-      <c r="O18" s="11">
+      <c r="O18" s="10">
         <v>8938</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="P18" s="6">
+        <v>-6.71</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>111.35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>92.27</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>92.09</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>97.66</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>3.02</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <v>59.42</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="6">
         <v>58.37</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="7">
         <v>19.600000000000001</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="5">
         <v>88.27</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="5">
         <v>24.7</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="5">
         <v>12.94</v>
       </c>
-      <c r="L19" s="10">
+      <c r="L19" s="9">
         <v>29</v>
       </c>
-      <c r="M19" s="10">
+      <c r="M19" s="9">
         <v>116</v>
       </c>
-      <c r="N19" s="10">
+      <c r="N19" s="9">
         <v>33</v>
       </c>
-      <c r="O19" s="11">
+      <c r="O19" s="10">
         <v>18465</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="P19" s="6">
+        <v>-6.75</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>111.04</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>94.18</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>94.95</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>99.54</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>2.04</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="4">
         <v>80.8</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="6">
         <v>44.03</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="7">
         <v>33.6</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="5">
         <v>93.48</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="5">
         <v>16.670000000000002</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="5">
         <v>8.6199999999999992</v>
       </c>
-      <c r="L20" s="10">
+      <c r="L20" s="9">
         <v>21</v>
       </c>
-      <c r="M20" s="10">
+      <c r="M20" s="9">
         <v>72</v>
       </c>
-      <c r="N20" s="10">
+      <c r="N20" s="9">
         <v>15</v>
       </c>
-      <c r="O20" s="11">
+      <c r="O20" s="10">
         <v>15740</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="P20" s="6">
+        <v>-6.81</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>110.84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>94.07</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>90.51</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>97.53</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>3.39</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <v>64.91</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="6">
         <v>42.58</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="7">
         <v>18.2</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="5">
         <v>93.83</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="5">
         <v>26.14</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="5">
         <v>9.23</v>
       </c>
-      <c r="L21" s="10">
+      <c r="L21" s="9">
         <v>26</v>
       </c>
-      <c r="M21" s="10">
+      <c r="M21" s="9">
         <v>132</v>
       </c>
-      <c r="N21" s="10">
+      <c r="N21" s="9">
         <v>22</v>
       </c>
-      <c r="O21" s="11">
+      <c r="O21" s="10">
         <v>20912</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="P21" s="6">
+        <v>-6.59</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>110.67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>97.41</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>97.41</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>99.6</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>3.1</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="4">
         <v>73.349999999999994</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="6">
         <v>71.08</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="7">
         <v>13.1</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="5">
         <v>93.1</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="5">
         <v>19.89</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="5">
         <v>15.72</v>
       </c>
-      <c r="L22" s="10">
+      <c r="L22" s="9">
         <v>24</v>
       </c>
-      <c r="M22" s="10">
+      <c r="M22" s="9">
         <v>73</v>
       </c>
-      <c r="N22" s="10">
+      <c r="N22" s="9">
         <v>18</v>
       </c>
-      <c r="O22" s="11">
+      <c r="O22" s="10">
         <v>20605</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="P22" s="6">
+        <v>-6.89</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>110.64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>90.7</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>83.36</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>95.49</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>5.37</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="4">
         <v>77.53</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="6">
         <v>104.51</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="7">
         <v>27.6</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="5">
         <v>94.57</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="5">
         <v>16.03</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="5">
         <v>8.51</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L23" s="9">
         <v>17</v>
       </c>
-      <c r="M23" s="10">
+      <c r="M23" s="9">
         <v>120</v>
       </c>
-      <c r="N23" s="10">
+      <c r="N23" s="9">
         <v>15</v>
       </c>
-      <c r="O23" s="11">
+      <c r="O23" s="10">
         <v>14141</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="P23" s="6">
+        <v>-7.14</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>110.41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>92.41</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>92.64</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>97.32</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>10.130000000000001</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="4">
         <v>72.5</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="6">
         <v>153.30000000000001</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="7">
         <v>14.8</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="5">
         <v>92.87</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="5">
         <v>24.15</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="5">
         <v>12.42</v>
       </c>
-      <c r="L24" s="10">
+      <c r="L24" s="9">
         <v>7</v>
       </c>
-      <c r="M24" s="10">
+      <c r="M24" s="9">
         <v>105</v>
       </c>
-      <c r="N24" s="10">
+      <c r="N24" s="9">
         <v>26</v>
       </c>
-      <c r="O24" s="11">
+      <c r="O24" s="10">
         <v>11203</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="P24" s="6">
+        <v>-7.32</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>110.17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <v>93.16</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>73.48</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>96.77</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="4">
         <v>63.41</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="6">
         <v>63.23</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="7">
         <v>16.5</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="5">
         <v>90.46</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="5">
         <v>20.010000000000002</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="5">
         <v>12.68</v>
       </c>
-      <c r="L25" s="10">
+      <c r="L25" s="9">
         <v>21</v>
       </c>
-      <c r="M25" s="10">
+      <c r="M25" s="9">
         <v>114</v>
       </c>
-      <c r="N25" s="10">
+      <c r="N25" s="9">
         <v>19</v>
       </c>
-      <c r="O25" s="11">
+      <c r="O25" s="10">
         <v>16307</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="P25" s="6">
+        <v>-6.92</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>110.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>93.66</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <v>93.01</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <v>99.16</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <v>5.44</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="4">
         <v>59.93</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="6">
         <v>67.84</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="7">
         <v>11.1</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="5">
         <v>90.74</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="5">
         <v>28.12</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="5">
         <v>11.96</v>
       </c>
-      <c r="L26" s="10">
+      <c r="L26" s="9">
         <v>14</v>
       </c>
-      <c r="M26" s="10">
+      <c r="M26" s="9">
         <v>110</v>
       </c>
-      <c r="N26" s="10">
+      <c r="N26" s="9">
         <v>19</v>
       </c>
-      <c r="O26" s="11">
+      <c r="O26" s="10">
         <v>12478</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="P26" s="6">
+        <v>-6.91</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>109.73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <v>98.8</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="4">
         <v>94.24</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <v>87.77</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <v>4.2</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="4">
         <v>64</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="6">
         <v>85.01</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="7">
         <v>14.2</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="5">
         <v>92.76</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="5">
         <v>21.64</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="5">
         <v>13.51</v>
       </c>
-      <c r="L27" s="10">
+      <c r="L27" s="9">
         <v>29</v>
       </c>
-      <c r="M27" s="10">
+      <c r="M27" s="9">
         <v>73</v>
       </c>
-      <c r="N27" s="10">
+      <c r="N27" s="9">
         <v>23</v>
       </c>
-      <c r="O27" s="11">
+      <c r="O27" s="10">
         <v>15826</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="P27" s="6">
+        <v>-7.02</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>109.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <v>90.29</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <v>86.2</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <v>96.74</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <v>2.91</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="4">
         <v>59.78</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="6">
         <v>37.28</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="7">
         <v>14.2</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28" s="5">
         <v>90.23</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="5">
         <v>29.2</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="5">
         <v>19.27</v>
       </c>
-      <c r="L28" s="10">
+      <c r="L28" s="9">
         <v>27</v>
       </c>
-      <c r="M28" s="10">
+      <c r="M28" s="9">
         <v>175</v>
       </c>
-      <c r="N28" s="10">
+      <c r="N28" s="9">
         <v>16</v>
       </c>
-      <c r="O28" s="11">
+      <c r="O28" s="10">
         <v>24335</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="P28" s="6">
+        <v>-6.89</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>109.38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="4">
         <v>86.39</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <v>88.79</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="5">
         <v>96.29</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <v>4.8099999999999996</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="4">
         <v>52.92</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="6">
         <v>84.59</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="7">
         <v>12.5</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29" s="5">
         <v>91.45</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29" s="5">
         <v>19.239999999999998</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K29" s="5">
         <v>10.58</v>
       </c>
-      <c r="L29" s="10">
+      <c r="L29" s="9">
         <v>42</v>
       </c>
-      <c r="M29" s="10">
+      <c r="M29" s="9">
         <v>148</v>
       </c>
-      <c r="N29" s="10">
+      <c r="N29" s="9">
         <v>58</v>
       </c>
-      <c r="O29" s="11">
+      <c r="O29" s="10">
         <v>28643</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+      <c r="P29" s="6">
+        <v>-6.99</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>109.13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>90.33</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <v>91.46</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="5">
         <v>97.88</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="5">
         <v>4.28</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="4">
         <v>45.49</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="6">
         <v>26.01</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="7">
         <v>10.3</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="5">
         <v>88.08</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="5">
         <v>32.57</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="5">
         <v>20.82</v>
       </c>
-      <c r="L30" s="10">
+      <c r="L30" s="9">
         <v>61</v>
       </c>
-      <c r="M30" s="10">
+      <c r="M30" s="9">
         <v>186</v>
       </c>
-      <c r="N30" s="10">
+      <c r="N30" s="9">
         <v>57</v>
       </c>
-      <c r="O30" s="11">
+      <c r="O30" s="10">
         <v>33074</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+      <c r="P30" s="6">
+        <v>-6.87</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>109.04</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <v>95.6</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="4">
         <v>95.85</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="5">
         <v>99</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="5">
         <v>5.73</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="4">
         <v>89.43</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="6">
         <v>143.41</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31" s="7">
         <v>98.9</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31" s="5">
         <v>97.68</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31" s="5">
         <v>6.83</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K31" s="5">
         <v>9.8000000000000007</v>
       </c>
-      <c r="L31" s="10">
+      <c r="L31" s="9">
         <v>1</v>
       </c>
-      <c r="M31" s="10">
+      <c r="M31" s="9">
         <v>16</v>
       </c>
-      <c r="N31" s="10">
+      <c r="N31" s="9">
         <v>3</v>
       </c>
-      <c r="O31" s="11">
+      <c r="O31" s="10">
         <v>1798</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+      <c r="P31" s="6">
+        <v>-7.48</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>110.22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>97.73</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <v>97.5</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="5">
         <v>99.51</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="5">
         <v>2.14</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="4">
         <v>71.739999999999995</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="6">
         <v>117.56</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H32" s="7">
         <v>162.69999999999999</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32" s="5">
         <v>96.53</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J32" s="5">
         <v>6.09</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K32" s="5">
         <v>11.74</v>
       </c>
-      <c r="L32" s="10">
+      <c r="L32" s="9">
         <v>3</v>
       </c>
-      <c r="M32" s="10">
+      <c r="M32" s="9">
         <v>17</v>
       </c>
-      <c r="N32" s="10">
+      <c r="N32" s="9">
         <v>10</v>
       </c>
-      <c r="O32" s="11">
+      <c r="O32" s="10">
         <v>9927</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+      <c r="P32" s="6">
+        <v>-7.57</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>110.83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="4">
         <v>93.46</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="4">
         <v>88.86</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="5">
         <v>95.53</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="5">
         <v>5.5</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="4">
         <v>74.569999999999993</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="6">
         <v>86.79</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H33" s="7">
         <v>89</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I33" s="5">
         <v>95.71</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J33" s="5">
         <v>10.95</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K33" s="5">
         <v>6.4</v>
       </c>
-      <c r="L33" s="10">
+      <c r="L33" s="9">
         <v>7</v>
       </c>
-      <c r="M33" s="10">
+      <c r="M33" s="9">
         <v>28</v>
       </c>
-      <c r="N33" s="10">
+      <c r="N33" s="9">
         <v>7</v>
       </c>
-      <c r="O33" s="11">
+      <c r="O33" s="10">
         <v>2507</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+      <c r="P33" s="6">
+        <v>-7.33</v>
+      </c>
+      <c r="Q33" s="6">
+        <v>110.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="4">
         <v>95.99</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="4">
         <v>95.15</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="5">
         <v>92.73</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="5">
         <v>1.08</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="4">
         <v>89</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="6">
         <v>73.569999999999993</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H34" s="7">
         <v>125.6</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I34" s="5">
         <v>97.1</v>
       </c>
-      <c r="J34" s="6">
+      <c r="J34" s="5">
         <v>7.92</v>
       </c>
-      <c r="K34" s="6">
+      <c r="K34" s="5">
         <v>5.25</v>
       </c>
-      <c r="L34" s="10">
+      <c r="L34" s="9">
         <v>29</v>
       </c>
-      <c r="M34" s="10">
+      <c r="M34" s="9">
         <v>122</v>
       </c>
-      <c r="N34" s="10">
+      <c r="N34" s="9">
         <v>60</v>
       </c>
-      <c r="O34" s="11">
+      <c r="O34" s="10">
         <v>27065</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+      <c r="P34" s="6">
+        <v>-6.98</v>
+      </c>
+      <c r="Q34" s="6">
+        <v>110.41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="4">
         <v>94.66</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="4">
         <v>94.34</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="5">
         <v>99.27</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="5">
         <v>4.83</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="4">
         <v>85.81</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="6">
         <v>97.29</v>
       </c>
-      <c r="H35" s="8">
+      <c r="H35" s="7">
         <v>53.5</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I35" s="5">
         <v>95.33</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J35" s="5">
         <v>8.91</v>
       </c>
-      <c r="K35" s="6">
+      <c r="K35" s="5">
         <v>8.26</v>
       </c>
-      <c r="L35" s="10">
+      <c r="L35" s="9">
         <v>6</v>
       </c>
-      <c r="M35" s="10">
+      <c r="M35" s="9">
         <v>31</v>
       </c>
-      <c r="N35" s="10">
+      <c r="N35" s="9">
         <v>9</v>
       </c>
-      <c r="O35" s="11">
+      <c r="O35" s="10">
         <v>6061</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+      <c r="P35" s="6">
+        <v>-6.89</v>
+      </c>
+      <c r="Q35" s="6">
+        <v>109.68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="4">
         <v>95.89</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="4">
         <v>95.28</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="5">
         <v>99.23</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="5">
         <v>5.46</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="4">
         <v>50.63</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="6">
         <v>75.040000000000006</v>
       </c>
-      <c r="H36" s="8">
+      <c r="H36" s="7">
         <v>52.5</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I36" s="5">
         <v>95.23</v>
       </c>
-      <c r="J36" s="6">
+      <c r="J36" s="5">
         <v>15.94</v>
       </c>
-      <c r="K36" s="6">
+      <c r="K36" s="5">
         <v>8.84</v>
       </c>
-      <c r="L36" s="10">
+      <c r="L36" s="9">
         <v>8</v>
       </c>
-      <c r="M36" s="10">
+      <c r="M36" s="9">
         <v>31</v>
       </c>
-      <c r="N36" s="10">
+      <c r="N36" s="9">
         <v>7</v>
       </c>
-      <c r="O36" s="11">
+      <c r="O36" s="10">
         <v>4520</v>
+      </c>
+      <c r="P36" s="6">
+        <v>-6.87</v>
+      </c>
+      <c r="Q36" s="6">
+        <v>109.13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="6">
-        <v>91.35</v>
-      </c>
-      <c r="C2" s="6">
-        <v>18.72</v>
-      </c>
-      <c r="D2" s="6">
-        <v>15.24</v>
-      </c>
-      <c r="E2" s="10">
-        <v>34</v>
-      </c>
-      <c r="F2" s="10">
-        <v>169</v>
-      </c>
-      <c r="G2" s="10">
-        <v>62</v>
-      </c>
-      <c r="H2" s="11">
-        <v>29652</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="6">
-        <v>94.62</v>
-      </c>
-      <c r="C3" s="6">
-        <v>17.66</v>
-      </c>
-      <c r="D3" s="6">
-        <v>18.440000000000001</v>
-      </c>
-      <c r="E3" s="10">
-        <v>35</v>
-      </c>
-      <c r="F3" s="10">
-        <v>207</v>
-      </c>
-      <c r="G3" s="10">
-        <v>54</v>
-      </c>
-      <c r="H3" s="11">
-        <v>27744</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="6">
-        <v>93.35</v>
-      </c>
-      <c r="C4" s="6">
-        <v>21.24</v>
-      </c>
-      <c r="D4" s="6">
-        <v>20.53</v>
-      </c>
-      <c r="E4" s="10">
-        <v>26</v>
-      </c>
-      <c r="F4" s="10">
-        <v>93</v>
-      </c>
-      <c r="G4" s="10">
-        <v>24</v>
-      </c>
-      <c r="H4" s="11">
-        <v>15202</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="6">
-        <v>88.72</v>
-      </c>
-      <c r="C5" s="6">
-        <v>30.84</v>
-      </c>
-      <c r="D5" s="6">
-        <v>18.71</v>
-      </c>
-      <c r="E5" s="10">
-        <v>19</v>
-      </c>
-      <c r="F5" s="10">
-        <v>167</v>
-      </c>
-      <c r="G5" s="10">
-        <v>22</v>
-      </c>
-      <c r="H5" s="11">
-        <v>16314</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="6">
-        <v>90.05</v>
-      </c>
-      <c r="C6" s="6">
-        <v>11.93</v>
-      </c>
-      <c r="D6" s="6">
-        <v>21.32</v>
-      </c>
-      <c r="E6" s="10">
-        <v>15</v>
-      </c>
-      <c r="F6" s="10">
-        <v>123</v>
-      </c>
-      <c r="G6" s="10">
-        <v>26</v>
-      </c>
-      <c r="H6" s="11">
-        <v>20375</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="6">
-        <v>93.43</v>
-      </c>
-      <c r="C7" s="6">
-        <v>14.96</v>
-      </c>
-      <c r="D7" s="6">
-        <v>15.44</v>
-      </c>
-      <c r="E7" s="10">
-        <v>7</v>
-      </c>
-      <c r="F7" s="10">
-        <v>63</v>
-      </c>
-      <c r="G7" s="10">
-        <v>17</v>
-      </c>
-      <c r="H7" s="11">
-        <v>9615</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="6">
-        <v>92.14</v>
-      </c>
-      <c r="C8" s="6">
-        <v>34.19</v>
-      </c>
-      <c r="D8" s="6">
-        <v>22.08</v>
-      </c>
-      <c r="E8" s="10">
-        <v>11</v>
-      </c>
-      <c r="F8" s="10">
-        <v>123</v>
-      </c>
-      <c r="G8" s="10">
-        <v>15</v>
-      </c>
-      <c r="H8" s="11">
-        <v>13056</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="6">
-        <v>93.06</v>
-      </c>
-      <c r="C9" s="6">
-        <v>17.940000000000001</v>
-      </c>
-      <c r="D9" s="6">
-        <v>13.96</v>
-      </c>
-      <c r="E9" s="10">
-        <v>11</v>
-      </c>
-      <c r="F9" s="10">
-        <v>83</v>
-      </c>
-      <c r="G9" s="10">
-        <v>29</v>
-      </c>
-      <c r="H9" s="11">
-        <v>18993</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="6">
-        <v>88.3</v>
-      </c>
-      <c r="C10" s="6">
-        <v>19.25</v>
-      </c>
-      <c r="D10" s="6">
-        <v>13.27</v>
-      </c>
-      <c r="E10" s="10">
-        <v>14</v>
-      </c>
-      <c r="F10" s="10">
-        <v>84</v>
-      </c>
-      <c r="G10" s="10">
-        <v>17</v>
-      </c>
-      <c r="H10" s="11">
-        <v>14729</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="6">
-        <v>88.15</v>
-      </c>
-      <c r="C11" s="6">
-        <v>5.48</v>
-      </c>
-      <c r="D11" s="6">
-        <v>15.6</v>
-      </c>
-      <c r="E11" s="10">
-        <v>22</v>
-      </c>
-      <c r="F11" s="10">
-        <v>102</v>
-      </c>
-      <c r="G11" s="10">
-        <v>26</v>
-      </c>
-      <c r="H11" s="11">
-        <v>17734</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="6">
-        <v>89.59</v>
-      </c>
-      <c r="C12" s="6">
-        <v>10.79</v>
-      </c>
-      <c r="D12" s="6">
-        <v>9.8699999999999992</v>
-      </c>
-      <c r="E12" s="10">
-        <v>13</v>
-      </c>
-      <c r="F12" s="10">
-        <v>84</v>
-      </c>
-      <c r="G12" s="10">
-        <v>21</v>
-      </c>
-      <c r="H12" s="11">
-        <v>13152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="6">
-        <v>85.38</v>
-      </c>
-      <c r="C13" s="6">
-        <v>21.54</v>
-      </c>
-      <c r="D13" s="6">
-        <v>14.02</v>
-      </c>
-      <c r="E13" s="10">
-        <v>13</v>
-      </c>
-      <c r="F13" s="10">
-        <v>44</v>
-      </c>
-      <c r="G13" s="10">
-        <v>14</v>
-      </c>
-      <c r="H13" s="11">
-        <v>12328</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="6">
-        <v>89.72</v>
-      </c>
-      <c r="C14" s="6">
-        <v>12.5</v>
-      </c>
-      <c r="D14" s="6">
-        <v>13.58</v>
-      </c>
-      <c r="E14" s="10">
-        <v>9</v>
-      </c>
-      <c r="F14" s="10">
-        <v>75</v>
-      </c>
-      <c r="G14" s="10">
-        <v>32</v>
-      </c>
-      <c r="H14" s="11">
-        <v>13249</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="6">
-        <v>83.44</v>
-      </c>
-      <c r="C15" s="6">
-        <v>20.22</v>
-      </c>
-      <c r="D15" s="6">
-        <v>15.93</v>
-      </c>
-      <c r="E15" s="10">
-        <v>16</v>
-      </c>
-      <c r="F15" s="10">
-        <v>76</v>
-      </c>
-      <c r="G15" s="10">
-        <v>20</v>
-      </c>
-      <c r="H15" s="11">
-        <v>15125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="6">
-        <v>91.81</v>
-      </c>
-      <c r="C16" s="6">
-        <v>34.950000000000003</v>
-      </c>
-      <c r="D16" s="6">
-        <v>14.87</v>
-      </c>
-      <c r="E16" s="10">
-        <v>22</v>
-      </c>
-      <c r="F16" s="10">
-        <v>189</v>
-      </c>
-      <c r="G16" s="10">
-        <v>52</v>
-      </c>
-      <c r="H16" s="11">
-        <v>21570</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="6">
-        <v>84.71</v>
-      </c>
-      <c r="C17" s="6">
-        <v>31.36</v>
-      </c>
-      <c r="D17" s="6">
-        <v>14.64</v>
-      </c>
-      <c r="E17" s="10">
-        <v>14</v>
-      </c>
-      <c r="F17" s="10">
-        <v>107</v>
-      </c>
-      <c r="G17" s="10">
-        <v>22</v>
-      </c>
-      <c r="H17" s="11">
-        <v>11752</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="6">
-        <v>91.52</v>
-      </c>
-      <c r="C18" s="6">
-        <v>30.58</v>
-      </c>
-      <c r="D18" s="6">
-        <v>20.97</v>
-      </c>
-      <c r="E18" s="10">
-        <v>17</v>
-      </c>
-      <c r="F18" s="10">
-        <v>82</v>
-      </c>
-      <c r="G18" s="10">
-        <v>34</v>
-      </c>
-      <c r="H18" s="11">
-        <v>8938</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="6">
-        <v>88.27</v>
-      </c>
-      <c r="C19" s="6">
-        <v>24.7</v>
-      </c>
-      <c r="D19" s="6">
-        <v>12.94</v>
-      </c>
-      <c r="E19" s="10">
-        <v>29</v>
-      </c>
-      <c r="F19" s="10">
-        <v>116</v>
-      </c>
-      <c r="G19" s="10">
-        <v>33</v>
-      </c>
-      <c r="H19" s="11">
-        <v>18465</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="6">
-        <v>93.48</v>
-      </c>
-      <c r="C20" s="6">
-        <v>16.670000000000002</v>
-      </c>
-      <c r="D20" s="6">
-        <v>8.6199999999999992</v>
-      </c>
-      <c r="E20" s="10">
-        <v>21</v>
-      </c>
-      <c r="F20" s="10">
-        <v>72</v>
-      </c>
-      <c r="G20" s="10">
-        <v>15</v>
-      </c>
-      <c r="H20" s="11">
-        <v>15740</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="6">
-        <v>93.83</v>
-      </c>
-      <c r="C21" s="6">
-        <v>26.14</v>
-      </c>
-      <c r="D21" s="6">
-        <v>9.23</v>
-      </c>
-      <c r="E21" s="10">
-        <v>26</v>
-      </c>
-      <c r="F21" s="10">
-        <v>132</v>
-      </c>
-      <c r="G21" s="10">
-        <v>22</v>
-      </c>
-      <c r="H21" s="11">
-        <v>20912</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="6">
-        <v>93.1</v>
-      </c>
-      <c r="C22" s="6">
-        <v>19.89</v>
-      </c>
-      <c r="D22" s="6">
-        <v>15.72</v>
-      </c>
-      <c r="E22" s="10">
-        <v>24</v>
-      </c>
-      <c r="F22" s="10">
-        <v>73</v>
-      </c>
-      <c r="G22" s="10">
-        <v>18</v>
-      </c>
-      <c r="H22" s="11">
-        <v>20605</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="6">
-        <v>94.57</v>
-      </c>
-      <c r="C23" s="6">
-        <v>16.03</v>
-      </c>
-      <c r="D23" s="6">
-        <v>8.51</v>
-      </c>
-      <c r="E23" s="10">
-        <v>17</v>
-      </c>
-      <c r="F23" s="10">
-        <v>120</v>
-      </c>
-      <c r="G23" s="10">
-        <v>15</v>
-      </c>
-      <c r="H23" s="11">
-        <v>14141</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="6">
-        <v>92.87</v>
-      </c>
-      <c r="C24" s="6">
-        <v>24.15</v>
-      </c>
-      <c r="D24" s="6">
-        <v>12.42</v>
-      </c>
-      <c r="E24" s="10">
-        <v>7</v>
-      </c>
-      <c r="F24" s="10">
-        <v>105</v>
-      </c>
-      <c r="G24" s="10">
-        <v>26</v>
-      </c>
-      <c r="H24" s="11">
-        <v>11203</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="6">
-        <v>90.46</v>
-      </c>
-      <c r="C25" s="6">
-        <v>20.010000000000002</v>
-      </c>
-      <c r="D25" s="6">
-        <v>12.68</v>
-      </c>
-      <c r="E25" s="10">
-        <v>21</v>
-      </c>
-      <c r="F25" s="10">
-        <v>114</v>
-      </c>
-      <c r="G25" s="10">
-        <v>19</v>
-      </c>
-      <c r="H25" s="11">
-        <v>16307</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="6">
-        <v>90.74</v>
-      </c>
-      <c r="C26" s="6">
-        <v>28.12</v>
-      </c>
-      <c r="D26" s="6">
-        <v>11.96</v>
-      </c>
-      <c r="E26" s="10">
-        <v>14</v>
-      </c>
-      <c r="F26" s="10">
-        <v>110</v>
-      </c>
-      <c r="G26" s="10">
-        <v>19</v>
-      </c>
-      <c r="H26" s="11">
-        <v>12478</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="6">
-        <v>92.76</v>
-      </c>
-      <c r="C27" s="6">
-        <v>21.64</v>
-      </c>
-      <c r="D27" s="6">
-        <v>13.51</v>
-      </c>
-      <c r="E27" s="10">
-        <v>29</v>
-      </c>
-      <c r="F27" s="10">
-        <v>73</v>
-      </c>
-      <c r="G27" s="10">
-        <v>23</v>
-      </c>
-      <c r="H27" s="11">
-        <v>15826</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="6">
-        <v>90.23</v>
-      </c>
-      <c r="C28" s="6">
-        <v>29.2</v>
-      </c>
-      <c r="D28" s="6">
-        <v>19.27</v>
-      </c>
-      <c r="E28" s="10">
-        <v>27</v>
-      </c>
-      <c r="F28" s="10">
-        <v>175</v>
-      </c>
-      <c r="G28" s="10">
-        <v>16</v>
-      </c>
-      <c r="H28" s="11">
-        <v>24335</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="6">
-        <v>91.45</v>
-      </c>
-      <c r="C29" s="6">
-        <v>19.239999999999998</v>
-      </c>
-      <c r="D29" s="6">
-        <v>10.58</v>
-      </c>
-      <c r="E29" s="10">
-        <v>42</v>
-      </c>
-      <c r="F29" s="10">
-        <v>148</v>
-      </c>
-      <c r="G29" s="10">
-        <v>58</v>
-      </c>
-      <c r="H29" s="11">
-        <v>28643</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="6">
-        <v>88.08</v>
-      </c>
-      <c r="C30" s="6">
-        <v>32.57</v>
-      </c>
-      <c r="D30" s="6">
-        <v>20.82</v>
-      </c>
-      <c r="E30" s="10">
-        <v>61</v>
-      </c>
-      <c r="F30" s="10">
-        <v>186</v>
-      </c>
-      <c r="G30" s="10">
-        <v>57</v>
-      </c>
-      <c r="H30" s="11">
-        <v>33074</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="6">
-        <v>97.68</v>
-      </c>
-      <c r="C31" s="6">
-        <v>6.83</v>
-      </c>
-      <c r="D31" s="6">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="E31" s="10">
-        <v>1</v>
-      </c>
-      <c r="F31" s="10">
-        <v>16</v>
-      </c>
-      <c r="G31" s="10">
-        <v>3</v>
-      </c>
-      <c r="H31" s="11">
-        <v>1798</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="6">
-        <v>96.53</v>
-      </c>
-      <c r="C32" s="6">
-        <v>6.09</v>
-      </c>
-      <c r="D32" s="6">
-        <v>11.74</v>
-      </c>
-      <c r="E32" s="10">
-        <v>3</v>
-      </c>
-      <c r="F32" s="10">
-        <v>17</v>
-      </c>
-      <c r="G32" s="10">
-        <v>10</v>
-      </c>
-      <c r="H32" s="11">
-        <v>9927</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="6">
-        <v>95.71</v>
-      </c>
-      <c r="C33" s="6">
-        <v>10.95</v>
-      </c>
-      <c r="D33" s="6">
-        <v>6.4</v>
-      </c>
-      <c r="E33" s="10">
-        <v>7</v>
-      </c>
-      <c r="F33" s="10">
-        <v>28</v>
-      </c>
-      <c r="G33" s="10">
-        <v>7</v>
-      </c>
-      <c r="H33" s="11">
-        <v>2507</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="6">
-        <v>97.1</v>
-      </c>
-      <c r="C34" s="6">
-        <v>7.92</v>
-      </c>
-      <c r="D34" s="6">
-        <v>5.25</v>
-      </c>
-      <c r="E34" s="10">
-        <v>29</v>
-      </c>
-      <c r="F34" s="10">
-        <v>122</v>
-      </c>
-      <c r="G34" s="10">
-        <v>60</v>
-      </c>
-      <c r="H34" s="11">
-        <v>27065</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="6">
-        <v>95.33</v>
-      </c>
-      <c r="C35" s="6">
-        <v>8.91</v>
-      </c>
-      <c r="D35" s="6">
-        <v>8.26</v>
-      </c>
-      <c r="E35" s="10">
-        <v>6</v>
-      </c>
-      <c r="F35" s="10">
-        <v>31</v>
-      </c>
-      <c r="G35" s="10">
-        <v>9</v>
-      </c>
-      <c r="H35" s="11">
-        <v>6061</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="6">
-        <v>95.23</v>
-      </c>
-      <c r="C36" s="6">
-        <v>15.94</v>
-      </c>
-      <c r="D36" s="6">
-        <v>8.84</v>
-      </c>
-      <c r="E36" s="10">
-        <v>8</v>
-      </c>
-      <c r="F36" s="10">
-        <v>31</v>
-      </c>
-      <c r="G36" s="10">
-        <v>7</v>
-      </c>
-      <c r="H36" s="11">
-        <v>4520</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>